--- a/Running projects/NASTP/150 Invoice for Additional HVAC Work (10 peral).xlsx
+++ b/Running projects/NASTP/150 Invoice for Additional HVAC Work (10 peral).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77592634-0FEC-45C9-8628-AF461C2E7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5593DC-8698-4EE2-B8E1-B3CEB47947D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,15 +12,15 @@
     <sheet name="Labour invoice" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Labour invoice'!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Supply invoice'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Labour invoice'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Supply invoice'!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -375,6 +375,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,7 +388,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -412,13 +412,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>318881</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>131696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22778</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>33544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -465,13 +465,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -576,15 +576,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317638</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>546238</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>243095</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>200854</xdr:rowOff>
+      <xdr:colOff>471695</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,7 +605,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9242563" y="8815180"/>
+          <a:off x="9566413" y="8629650"/>
           <a:ext cx="535057" cy="438979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -631,7 +631,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>22778</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>33544</xdr:rowOff>
+      <xdr:rowOff>24019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,13 +677,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -789,13 +789,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317638</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243095</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1117,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE56382-B3D4-4550-A7A9-CD3AA7BD3E42}">
-  <dimension ref="A6:J33"/>
+  <dimension ref="A10:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,406 +1134,396 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F11" s="15">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F12" s="16">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="16" t="s">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="14" spans="1:6" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:10" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="1">
         <v>160</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E19" s="14">
         <v>400</v>
       </c>
-      <c r="F15" s="14">
-        <f>E15*D15</f>
+      <c r="F19" s="14">
+        <f>E19*D19</f>
         <v>64000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D20" s="1">
         <v>160</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E20" s="14">
         <v>170</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" ref="F16:F26" si="0">E16*D16</f>
+      <c r="F20" s="14">
+        <f t="shared" ref="F20:F30" si="0">E20*D20</f>
         <v>27200</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E21" s="14">
         <v>6000</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D22" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E22" s="14">
         <v>6000</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E23" s="14">
         <v>3000</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D24" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E24" s="14">
         <v>3000</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E25" s="14">
         <v>9000</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E26" s="14">
         <v>9000</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E27" s="14">
         <v>6000</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E28" s="14">
         <v>6000</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F28" s="14">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D29" s="1">
         <v>150</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E29" s="14">
         <v>300</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F29" s="14">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>12</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E30" s="14">
         <v>40000</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F30" s="14">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="31" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="22">
-        <f>SUM(F15:F26)</f>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="22">
+        <f>SUM(F19:F30)</f>
         <v>431200</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="32" spans="1:10" s="10" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H36">
         <v>515390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F12"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1544,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878B36E-6914-4BBB-A85E-9A424DAF587F}">
-  <dimension ref="A6:J34"/>
+  <dimension ref="A9:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,423 +1551,423 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F10" s="15">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F11" s="16">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="16" t="s">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="13" spans="1:6" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F17" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="1">
         <v>160</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E18" s="14">
         <v>60</v>
       </c>
-      <c r="F15" s="14">
-        <f>E15*D15</f>
+      <c r="F18" s="14">
+        <f>E18*D18</f>
         <v>9600</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <v>160</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E19" s="14">
         <v>50</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" ref="F16:F26" si="0">E16*D16</f>
+      <c r="F19" s="14">
+        <f t="shared" ref="F19:F29" si="0">E19*D19</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E20" s="14">
         <v>1000</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F20" s="14">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E21" s="14">
         <v>1000</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D22" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E22" s="14">
         <v>500</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D23" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E23" s="14">
         <v>500</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E24" s="14">
         <v>500</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E25" s="14">
         <v>500</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E26" s="14">
         <v>500</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E27" s="14">
         <v>500</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D28" s="1">
         <v>150</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E28" s="14">
         <v>100</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F28" s="14">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>12</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E29" s="14">
         <v>5000</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F29" s="14">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="22">
-        <f>SUM(F15:F26)</f>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="22">
+        <f>SUM(F18:F29)</f>
         <v>70100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="22">
-        <f>F27*15%</f>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="22">
+        <f>F30*15%</f>
         <v>10515</v>
       </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="22">
-        <f>F28+F27</f>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="22">
+        <f>F31+F30</f>
         <v>80615</v>
       </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" s="10" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="28"/>
+      <c r="B35" s="25"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F12"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
